--- a/TableSupp/time_cost_table.xlsx
+++ b/TableSupp/time_cost_table.xlsx
@@ -31,13 +31,13 @@
     <t>Time cost/ms</t>
   </si>
   <si>
-    <t>1596.79±65.00</t>
-  </si>
-  <si>
-    <t>1641.77±87.59</t>
-  </si>
-  <si>
-    <t>1270.26±38.65</t>
+    <t>1532.70±19.62</t>
+  </si>
+  <si>
+    <t>1535.08±65.21</t>
+  </si>
+  <si>
+    <t>1219.73±17.19</t>
   </si>
 </sst>
 </file>
